--- a/testresult.xlsx
+++ b/testresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Page Names</t>
   </si>
@@ -28,67 +28,22 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Case Conference Alert Report</t>
+  </si>
+  <si>
     <t>Case Conference Notification</t>
   </si>
   <si>
     <t>Covid Alert Report</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Client Forms Package Report</t>
   </si>
   <si>
     <t>Clinician Velocity Report</t>
-  </si>
-  <si>
-    <t>Clinician Velocity Summary Report</t>
-  </si>
-  <si>
-    <t>DE - HHABN Expiry Report</t>
-  </si>
-  <si>
-    <t>Homebound Status Report</t>
-  </si>
-  <si>
-    <t>Incident Report List</t>
-  </si>
-  <si>
-    <t>Infection Control Report</t>
-  </si>
-  <si>
-    <t>Intake Evaluation Alert</t>
-  </si>
-  <si>
-    <t>Medication Report</t>
-  </si>
-  <si>
-    <t>Pending Cosign</t>
-  </si>
-  <si>
-    <t>QA Velocity Report</t>
-  </si>
-  <si>
-    <t>QA Velocity Summary Report</t>
-  </si>
-  <si>
-    <t>Subform Master Report</t>
-  </si>
-  <si>
-    <t>Supervisory Visit Alert</t>
-  </si>
-  <si>
-    <t>Supplies Report</t>
-  </si>
-  <si>
-    <t>Therapy Re-Eval Alert Report</t>
-  </si>
-  <si>
-    <t>Wound Report</t>
-  </si>
-  <si>
-    <t>Case Conference Alert Report</t>
-  </si>
-  <si>
-    <t>Complaint Report</t>
   </si>
 </sst>
 </file>
@@ -446,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +430,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -483,7 +438,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -491,15 +446,15 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -507,137 +462,9 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
